--- a/table/biomass_rda_anova.xlsx
+++ b/table/biomass_rda_anova.xlsx
@@ -385,13 +385,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.07521660027406603</v>
+        <v>0.05675257822060063</v>
       </c>
       <c r="C2">
-        <v>7.680093933538477</v>
+        <v>5.850947392548474</v>
       </c>
       <c r="D2">
-        <v>0.0016</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="3">
@@ -399,13 +399,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04059247393904467</v>
+        <v>0.03435043240222588</v>
       </c>
       <c r="C3">
-        <v>4.144750117801662</v>
+        <v>3.541382245498785</v>
       </c>
       <c r="D3">
-        <v>0.0297</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="4">
@@ -413,13 +413,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.01294674063311437</v>
+        <v>0.0173282489127029</v>
       </c>
       <c r="C4">
-        <v>1.321944674887958</v>
+        <v>1.786468138929547</v>
       </c>
       <c r="D4">
-        <v>0.8675000000000001</v>
+        <v>0.4618</v>
       </c>
     </row>
     <row r="5">
@@ -427,13 +427,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.006657708835984257</v>
+        <v>0.01031975976308033</v>
       </c>
       <c r="C5">
-        <v>0.6797944743075283</v>
+        <v>1.063922968271493</v>
       </c>
       <c r="D5">
-        <v>0.9922</v>
+        <v>0.9005</v>
       </c>
     </row>
     <row r="6">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.005636363866341859</v>
+        <v>0.007864962101586921</v>
       </c>
       <c r="C6">
-        <v>0.5755086480827398</v>
+        <v>0.810843858439345</v>
       </c>
       <c r="D6">
-        <v>0.9792</v>
+        <v>0.9232</v>
       </c>
     </row>
     <row r="7">
@@ -455,13 +455,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.001879364963247336</v>
+        <v>0.005316559256442423</v>
       </c>
       <c r="C7">
-        <v>0.1918951321988589</v>
+        <v>0.5481144556622054</v>
       </c>
       <c r="D7">
-        <v>0.9989</v>
+        <v>0.9161</v>
       </c>
     </row>
     <row r="8">
@@ -469,7 +469,7 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>0.254636417737757</v>
+        <v>0.2521928389947306</v>
       </c>
     </row>
   </sheetData>
@@ -512,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.04863690236184948</v>
+        <v>0.02578411386815654</v>
       </c>
       <c r="C2">
-        <v>4.966137493775228</v>
+        <v>2.65823154711414</v>
       </c>
       <c r="D2">
-        <v>0.0002</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="3">
@@ -526,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03343392223203129</v>
+        <v>0.0256678119263285</v>
       </c>
       <c r="C3">
-        <v>3.413816396553548</v>
+        <v>2.646241315751574</v>
       </c>
       <c r="D3">
-        <v>0.0044</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="4">
@@ -540,13 +540,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.02995082573804175</v>
+        <v>0.02296924923907395</v>
       </c>
       <c r="C4">
-        <v>3.058170061091063</v>
+        <v>2.368031077315406</v>
       </c>
       <c r="D4">
-        <v>0.0102</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="5">
@@ -554,13 +554,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.03049408610070881</v>
+        <v>0.025680434140126</v>
       </c>
       <c r="C5">
-        <v>3.113640404079826</v>
+        <v>2.647542611855155</v>
       </c>
       <c r="D5">
-        <v>0.008999999999999999</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="6">
@@ -568,13 +568,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.03161558481066423</v>
+        <v>0.02596348205848037</v>
       </c>
       <c r="C6">
-        <v>3.228152565057802</v>
+        <v>2.67672363819416</v>
       </c>
       <c r="D6">
-        <v>0.0075</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.03236864909510639</v>
+        <v>0.02421832816483849</v>
       </c>
       <c r="C7">
-        <v>3.305045224675959</v>
+        <v>2.496805757037999</v>
       </c>
       <c r="D7">
-        <v>0.0074</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="8">
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>0.254636417737757</v>
+        <v>0.2521928389947307</v>
       </c>
     </row>
   </sheetData>

--- a/table/biomass_rda_anova.xlsx
+++ b/table/biomass_rda_anova.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -361,114 +361,154 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>rownames(biomass_rda_axis)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Df</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Pr(&gt;F)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RDA1</t>
+        </is>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.05675257822060063</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.850947392548474</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RDA2</t>
+        </is>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.03435043240222588</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.541382245498785</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0021</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RDA3</t>
+        </is>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0.0173282489127029</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.786468138929547</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.4618</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RDA4</t>
+        </is>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.01031975976308033</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.063922968271493</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.9005</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RDA5</t>
+        </is>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.007864962101586921</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.810843858439345</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.9232</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RDA6</t>
+        </is>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0.005316559256442423</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.5481144556622054</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.9161</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.2521928389947306</v>
       </c>
     </row>
@@ -479,7 +519,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,114 +528,154 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>rownames(biomass_rda_margin)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Df</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Pr(&gt;F)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.02578411386815654</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2.65823154711414</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0019</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>D50</t>
+        </is>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.0256678119263285</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2.646241315751574</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0022</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TOC</t>
+        </is>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>0.02296924923907395</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.368031077315406</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.0074</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.025680434140126</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.647542611855155</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.0023</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chla</t>
+        </is>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.02596348205848037</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.67672363819416</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.0028</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Porosity</t>
+        </is>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0.02421832816483849</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2.496805757037999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.0056</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.2521928389947307</v>
       </c>
     </row>
